--- a/logs/boat_logs/ScandyMaintenanceLog.xlsx
+++ b/logs/boat_logs/ScandyMaintenanceLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -191,9 +191,6 @@
     <t>new thermostat to fix alarm at higher rpms</t>
   </si>
   <si>
-    <t>new port hub, repacked starboard bearings</t>
-  </si>
-  <si>
     <t>Hub Kit #</t>
   </si>
   <si>
@@ -213,6 +210,12 @@
   </si>
   <si>
     <t>13 1/4 x 16</t>
+  </si>
+  <si>
+    <t>new port hub on trailer, repacked starboard bearings</t>
+  </si>
+  <si>
+    <t>new port grease fitting nipple on trailer bearings</t>
   </si>
 </sst>
 </file>
@@ -531,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,13 +575,13 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" t="s">
         <v>60</v>
-      </c>
-      <c r="J3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -595,16 +598,16 @@
         <v>39</v>
       </c>
       <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
         <v>56</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>57</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>58</v>
-      </c>
-      <c r="L4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -1044,7 +1047,15 @@
         <v>23</v>
       </c>
       <c r="X32" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F33" s="1">
+        <v>43721</v>
+      </c>
+      <c r="X33" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/logs/boat_logs/ScandyMaintenanceLog.xlsx
+++ b/logs/boat_logs/ScandyMaintenanceLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>new port grease fitting nipple on trailer bearings</t>
+  </si>
+  <si>
+    <t>UF#5589</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X33" sqref="X33"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,6 +564,9 @@
       <c r="F1" t="s">
         <v>21</v>
       </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/logs/boat_logs/ScandyMaintenanceLog.xlsx
+++ b/logs/boat_logs/ScandyMaintenanceLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>UF#5589</t>
+  </si>
+  <si>
+    <t>installed cleats for stern anchoring/fire extinguisher mount</t>
+  </si>
+  <si>
+    <t>ring seal treatment added to address rough idle</t>
   </si>
 </sst>
 </file>
@@ -537,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,12 +1062,148 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F33" s="1">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43697</v>
+      </c>
+      <c r="B33">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43698</v>
+      </c>
+      <c r="B34">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43699</v>
+      </c>
+      <c r="B35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F36" s="1">
         <v>43721</v>
       </c>
-      <c r="X33" t="s">
+      <c r="X36" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43740</v>
+      </c>
+      <c r="B37">
+        <v>120</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43741</v>
+      </c>
+      <c r="B38">
+        <v>140</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43744</v>
+      </c>
+      <c r="B39">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43748</v>
+      </c>
+      <c r="B40">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43749</v>
+      </c>
+      <c r="B41">
+        <v>140</v>
+      </c>
+      <c r="F41" s="1">
+        <v>43749</v>
+      </c>
+      <c r="J41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43752</v>
+      </c>
+      <c r="B42">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43755</v>
+      </c>
+      <c r="B43">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43759</v>
+      </c>
+      <c r="B44">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F45" s="1">
+        <v>43763</v>
+      </c>
+      <c r="X45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43774</v>
+      </c>
+      <c r="B46">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43775</v>
+      </c>
+      <c r="B47">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F48" s="1">
+        <v>43787</v>
+      </c>
+      <c r="X48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43788</v>
+      </c>
+      <c r="B49">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/logs/boat_logs/ScandyMaintenanceLog.xlsx
+++ b/logs/boat_logs/ScandyMaintenanceLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -225,6 +225,18 @@
   </si>
   <si>
     <t>ring seal treatment added to address rough idle</t>
+  </si>
+  <si>
+    <t>Oil Filter</t>
+  </si>
+  <si>
+    <t>35-8M0065104</t>
+  </si>
+  <si>
+    <t>25W-40 (Florida/Hot Areas)</t>
+  </si>
+  <si>
+    <t>oil change</t>
   </si>
 </sst>
 </file>
@@ -543,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X49"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,6 +596,15 @@
       <c r="D2">
         <v>40489</v>
       </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
@@ -1198,11 +1219,33 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43788</v>
       </c>
       <c r="B49">
+        <v>120</v>
+      </c>
+      <c r="C49">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F50" s="1">
+        <v>43812</v>
+      </c>
+      <c r="N50" t="s">
+        <v>23</v>
+      </c>
+      <c r="X50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43816</v>
+      </c>
+      <c r="B51">
         <v>120</v>
       </c>
     </row>
